--- a/af_we_peaks_dataframe.xlsx
+++ b/af_we_peaks_dataframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reasonable/Biologi/Pop Gen/12 project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B233AC-EB1C-214F-98B6-0123C4A70E84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E6620-9618-904E-97C8-7BE12D2AE67B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="18180" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-20480" windowWidth="25600" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>gene_name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>transcript_type</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>IL1RAPL2</t>
   </si>
   <si>
@@ -77,14 +74,52 @@
   </si>
   <si>
     <t>OCRL</t>
+  </si>
+  <si>
+    <t>interleukin</t>
+  </si>
+  <si>
+    <t>liver protein transport</t>
+  </si>
+  <si>
+    <t>cell development</t>
+  </si>
+  <si>
+    <t>UMP synthesis</t>
+  </si>
+  <si>
+    <t>carboxylase</t>
+  </si>
+  <si>
+    <t>part of spliceosome</t>
+  </si>
+  <si>
+    <t>part of  dystrophin-glycoprotein complex</t>
+  </si>
+  <si>
+    <t>part of spliceosome, retinis pigmentosa</t>
+  </si>
+  <si>
+    <t>golgi. membran transport</t>
+  </si>
+  <si>
+    <t>association</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -112,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -424,25 +462,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>104558536</v>
@@ -451,15 +489,15 @@
         <v>0.23349321757611699</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>37889821</v>
@@ -468,15 +506,15 @@
         <v>0.219400423256878</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>37889821</v>
@@ -485,15 +523,15 @@
         <v>0.219400423256878</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>55982443</v>
@@ -502,15 +540,15 @@
         <v>0.21012562865127599</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>74513664</v>
@@ -519,15 +557,15 @@
         <v>0.198155785977358</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>37300948</v>
@@ -536,15 +574,15 @@
         <v>0.19771586324409701</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>37300948</v>
@@ -553,15 +591,15 @@
         <v>0.19771586324409701</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>32713394</v>
@@ -570,15 +608,15 @@
         <v>0.196936312574582</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>55988008</v>
@@ -587,15 +625,15 @@
         <v>0.19590995572991701</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>128707674</v>
@@ -604,10 +642,10 @@
         <v>0.19253560631057801</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
